--- a/project/excel/cfde.xlsx
+++ b/project/excel/cfde.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="95" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="57" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisType" sheetId="1" state="visible" r:id="rId1"/>
@@ -65,44 +65,6 @@
     <sheet name="BiosampleInCollection1" sheetId="56" state="visible" r:id="rId56"/>
     <sheet name="BiosampleSubstance1" sheetId="57" state="visible" r:id="rId57"/>
     <sheet name="Collection2" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="CollectionAnatomy1" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="CollectionCompound1" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="CollectionDefinedByProject1" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="CollectionDisease1" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="CollectionGene1" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet name="CollectionInCollection1" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="CollectionPhenotype1" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet name="CollectionProtein1" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="CollectionSubstance1" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet name="CollectionTaxonomy1" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet name="Compound2" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet name="DataType1" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet name="Dcc1" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet name="Disease2" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet name="File1" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet name="FileDescribesBiosample1" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet name="FileDescribesCollection1" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet name="FileDescribesSubject1" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet name="FileFormat1" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet name="FileInCollection1" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet name="Gene2" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet name="IdNamespace1" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet name="NcbiTaxonomy1" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet name="Phenotype2" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet name="PhenotypeDisease1" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet name="PhenotypeGene1" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet name="Project2" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet name="ProjectInProject1" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet name="Protein2" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet name="ProteinGene1" sheetId="88" state="visible" r:id="rId88"/>
-    <sheet name="Subject2" sheetId="89" state="visible" r:id="rId89"/>
-    <sheet name="SubjectDisease1" sheetId="90" state="visible" r:id="rId90"/>
-    <sheet name="SubjectInCollection1" sheetId="91" state="visible" r:id="rId91"/>
-    <sheet name="SubjectPhenotype1" sheetId="92" state="visible" r:id="rId92"/>
-    <sheet name="SubjectRace1" sheetId="93" state="visible" r:id="rId93"/>
-    <sheet name="SubjectRoleTaxonomy1" sheetId="94" state="visible" r:id="rId94"/>
-    <sheet name="SubjectSubstance1" sheetId="95" state="visible" r:id="rId95"/>
-    <sheet name="Substance2" sheetId="96" state="visible" r:id="rId96"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2786,7 +2748,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>biosampleFromSubject__biosample_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>biosampleFromSubject__biosample_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>biosampleFromSubject__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>biosampleFromSubject__subject_local_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>biosampleFromSubject__age_at_sampling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2803,72 +2811,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>collectionAnatomy__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionAnatomy__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionAnatomy__anatomy</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>biosampleFromSubject__biosample_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>biosampleFromSubject__biosample_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>biosampleFromSubject__subject_id_namespace</t>
+          <t>biosampleGene__biosample_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>biosampleGene__biosample_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>biosampleGene__gene</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>biosampleInCollection__biosample_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>biosampleInCollection__biosample_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>biosampleInCollection__collection_id_namespace</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>biosampleFromSubject__subject_local_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>biosampleFromSubject__age_at_sampling</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>biosampleInCollection__collection_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2885,1363 +2888,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>collectionCompound__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionCompound__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionCompound__compound</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionDefinedByProject__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionDefinedByProject__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionDefinedByProject__project_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>collectionDefinedByProject__project_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionDisease__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionDisease__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionDisease__disease</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionGene__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionGene__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionGene__gene</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionInCollection__superset_collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionInCollection__superset_collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionInCollection__subset_collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>collectionInCollection__subset_collection_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionPhenotype__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionPhenotype__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionPhenotype__phenotype</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionProtein__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionProtein__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionProtein__protein</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionSubstance__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionSubstance__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionSubstance__substance</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collectionTaxonomy__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collectionTaxonomy__collection_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collectionTaxonomy__taxon</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>compound__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>compound__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>compound__synonyms</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>biosampleGene__biosample_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>biosampleGene__biosample_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>biosampleGene__gene</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dataType__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dataType__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dataType__synonyms</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dcc__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dcc__dcc_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dcc__dcc_abbreviation</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>dcc__dcc_description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dcc__contact_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>dcc__contact_name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>dcc__dcc_url</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>dcc__project_id_namespace</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>dcc__project_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>disease__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>disease__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>disease__synonyms</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>file__id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>file__local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>file__project_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>file__project_local_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>file__persistent_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>file__creation_time</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>file__size_in_bytes</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>file__uncompressed_size_in_bytes</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>file__sha256</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>file__md5</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>file__filename</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>file__file_format</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>file__compression_format</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>file__data_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>file__assay_type</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>file__analysis_type</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>file__mime_type</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>file__bundle_collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>file__bundle_collection_local_id</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>file__dbgap_study_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>fileDescribesBiosample__file_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fileDescribesBiosample__file_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>fileDescribesBiosample__biosample_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>fileDescribesBiosample__biosample_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>fileDescribesCollection__file_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fileDescribesCollection__file_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>fileDescribesCollection__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>fileDescribesCollection__collection_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>fileDescribesSubject__file_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fileDescribesSubject__file_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>fileDescribesSubject__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>fileDescribesSubject__subject_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>fileFormat__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fileFormat__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>fileFormat__synonyms</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>fileInCollection__file_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fileInCollection__file_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>fileInCollection__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>fileInCollection__collection_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>gene__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>gene__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>gene__synonyms</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>gene__organism</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>biosampleInCollection__biosample_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>biosampleInCollection__biosample_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>biosampleInCollection__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>biosampleInCollection__collection_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>idNamespace__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>idNamespace__abbreviation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>idNamespace__description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ncbiTaxonomy__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ncbiTaxonomy__clade</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ncbiTaxonomy__description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ncbiTaxonomy__synonyms</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phenotype__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>phenotype__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>phenotype__synonyms</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phenotypeDisease__phenotype</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>phenotypeDisease__disease</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phenotypeGene__phenotype</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>phenotypeGene__gene</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>project__id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>project__local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>project__persistent_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>project__creation_time</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>project__abbreviation</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>project__description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>projectInProject__parent_project_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>projectInProject__parent_project_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>projectInProject__child_project_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>projectInProject__child_project_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>protein__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>protein__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>protein__synonyms</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>protein__organism</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>proteinGene__protein</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>proteinGene__gene</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subject__id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subject__local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subject__project_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>subject__project_local_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>subject__persistent_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subject__creation_time</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>subject__granularity</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>subject__sex</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>subject__ethnicity</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>subject__age_at_enrollment</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>biosampleSubstance__biosample_id_namespace</t>
         </is>
       </c>
@@ -4259,281 +2905,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subjectDisease__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subjectDisease__subject_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subjectDisease__association_type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>subjectDisease__disease</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subjectInCollection__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subjectInCollection__subject_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subjectInCollection__collection_id_namespace</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>subjectInCollection__collection_local_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subjectPhenotype__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subjectPhenotype__subject_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subjectPhenotype__association_type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>subjectPhenotype__phenotype</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subjectRace__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subjectRace__subject_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subjectRace__race</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subjectRoleTaxonomy__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subjectRoleTaxonomy__subject_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subjectRoleTaxonomy__role_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>subjectRoleTaxonomy__taxonomy_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subjectSubstance__subject_id_namespace</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subjectSubstance__subject_local_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subjectSubstance__substance</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>substance__id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>substance__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>substance__synonyms</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>substance__compound</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/cfde.xlsx
+++ b/project/excel/cfde.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="57" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="95" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisType" sheetId="1" state="visible" r:id="rId1"/>
@@ -65,6 +65,44 @@
     <sheet name="BiosampleInCollection1" sheetId="56" state="visible" r:id="rId56"/>
     <sheet name="BiosampleSubstance1" sheetId="57" state="visible" r:id="rId57"/>
     <sheet name="Collection2" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="CollectionAnatomy1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="CollectionCompound1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="CollectionDefinedByProject1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="CollectionDisease1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="CollectionGene1" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="CollectionInCollection1" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="CollectionPhenotype1" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="CollectionProtein1" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="CollectionSubstance1" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="CollectionTaxonomy1" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="Compound2" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet name="DataType1" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet name="Dcc1" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet name="Disease2" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet name="File1" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet name="FileDescribesBiosample1" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet name="FileDescribesCollection1" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet name="FileDescribesSubject1" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet name="FileFormat1" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet name="FileInCollection1" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet name="Gene2" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet name="IdNamespace1" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet name="NcbiTaxonomy1" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet name="Phenotype2" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet name="PhenotypeDisease1" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet name="PhenotypeGene1" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet name="Project2" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet name="ProjectInProject1" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet name="Protein2" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet name="ProteinGene1" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet name="Subject2" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet name="SubjectDisease1" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet name="SubjectInCollection1" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet name="SubjectPhenotype1" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet name="SubjectRace1" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet name="SubjectRoleTaxonomy1" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet name="SubjectSubstance1" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet name="Substance2" sheetId="96" state="visible" r:id="rId96"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2748,6 +2786,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionAnatomy__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionAnatomy__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionAnatomy__anatomy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2794,6 +2868,376 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionCompound__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionCompound__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionCompound__compound</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionDefinedByProject__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionDefinedByProject__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionDefinedByProject__project_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>collectionDefinedByProject__project_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionDisease__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionDisease__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionDisease__disease</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionGene__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionGene__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionGene__gene</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionInCollection__superset_collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionInCollection__superset_collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionInCollection__subset_collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>collectionInCollection__subset_collection_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionPhenotype__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionPhenotype__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionPhenotype__phenotype</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionProtein__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionProtein__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionProtein__protein</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionSubstance__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionSubstance__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionSubstance__substance</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collectionTaxonomy__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collectionTaxonomy__collection_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collectionTaxonomy__taxon</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>compound__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>compound__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>compound__synonyms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2830,6 +3274,506 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dataType__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataType__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dataType__synonyms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dcc__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dcc__dcc_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dcc__dcc_abbreviation</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dcc__dcc_description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dcc__contact_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dcc__contact_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dcc__dcc_url</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dcc__project_id_namespace</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dcc__project_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>disease__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>disease__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>disease__synonyms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>file__id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file__local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>file__project_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>file__project_local_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>file__persistent_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>file__creation_time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>file__size_in_bytes</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>file__uncompressed_size_in_bytes</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>file__sha256</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>file__md5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>file__filename</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>file__file_format</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>file__compression_format</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>file__data_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>file__assay_type</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>file__analysis_type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>file__mime_type</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>file__bundle_collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>file__bundle_collection_local_id</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>file__dbgap_study_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fileDescribesBiosample__file_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fileDescribesBiosample__file_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fileDescribesBiosample__biosample_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>fileDescribesBiosample__biosample_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fileDescribesCollection__file_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fileDescribesCollection__file_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fileDescribesCollection__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>fileDescribesCollection__collection_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fileDescribesSubject__file_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fileDescribesSubject__file_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fileDescribesSubject__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>fileDescribesSubject__subject_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fileFormat__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fileFormat__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fileFormat__synonyms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fileInCollection__file_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fileInCollection__file_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fileInCollection__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>fileInCollection__collection_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>gene__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gene__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>gene__synonyms</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gene__organism</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2871,6 +3815,416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>idNamespace__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>idNamespace__abbreviation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>idNamespace__description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ncbiTaxonomy__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ncbiTaxonomy__clade</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ncbiTaxonomy__description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ncbiTaxonomy__synonyms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phenotype__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>phenotype__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>phenotype__synonyms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phenotypeDisease__phenotype</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>phenotypeDisease__disease</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phenotypeGene__phenotype</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>phenotypeGene__gene</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>project__id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>project__local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>project__persistent_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>project__creation_time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>project__abbreviation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>project__description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>projectInProject__parent_project_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>projectInProject__parent_project_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>projectInProject__child_project_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>projectInProject__child_project_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>protein__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>protein__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>protein__synonyms</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>protein__organism</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>proteinGene__protein</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>proteinGene__gene</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subject__id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subject__local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subject__project_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subject__project_local_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subject__persistent_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subject__creation_time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>subject__granularity</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>subject__sex</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>subject__ethnicity</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>subject__age_at_enrollment</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2905,4 +4259,281 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subjectDisease__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectDisease__subject_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectDisease__association_type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subjectDisease__disease</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subjectInCollection__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectInCollection__subject_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectInCollection__collection_id_namespace</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subjectInCollection__collection_local_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subjectPhenotype__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectPhenotype__subject_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectPhenotype__association_type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subjectPhenotype__phenotype</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subjectRace__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectRace__subject_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectRace__race</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subjectRoleTaxonomy__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectRoleTaxonomy__subject_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectRoleTaxonomy__role_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subjectRoleTaxonomy__taxonomy_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subjectSubstance__subject_id_namespace</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectSubstance__subject_local_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectSubstance__substance</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>substance__id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>substance__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>substance__synonyms</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>substance__compound</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>